--- a/协议设计.xlsx
+++ b/协议设计.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
   <si>
     <t>第一位</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -137,6 +137,26 @@
   </si>
   <si>
     <t>继电器组-组4个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>命令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -471,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -670,6 +690,23 @@
         <v>33</v>
       </c>
     </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E1:H1"/>
